--- a/Project Outputs for EpicPlus/EpicPlus_digi_order.xlsx
+++ b/Project Outputs for EpicPlus/EpicPlus_digi_order.xlsx
@@ -469,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +492,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,18 +517,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -816,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1415,7 +1428,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B33" t="s">
@@ -1676,6 +1689,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
